--- a/data/districts.xlsx
+++ b/data/districts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,136 +36,136 @@
     <t xml:space="preserve">administrative</t>
   </si>
   <si>
-    <t xml:space="preserve">Batken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kadamjai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lailak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biškek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alamüdün</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaiyl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kemin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moskovsky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panfilov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sokuluk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ysyk-Ata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aksyi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ala-Buka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bazar-Korgon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chatkal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nooken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suzak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Togus-Toro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toktogul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ak-Talaa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At-Bashi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jumgal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kochkor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naryn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Song-Kol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aravan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chong-Alay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kara-Kuldja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kara-Suu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nookat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uzgen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bakai-Ata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kara-Buura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ak-Suu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djety-Oguz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tüp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ysyk-Köl (lake)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ysyk-Köl</t>
+    <t xml:space="preserve">Баткенский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кадамжайский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лейлекский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Бишкек</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аламединский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чуйский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жайыльский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кеминский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Московский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Панфиловский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сокулукский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ысык-Атинский район </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аксыйский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ала-Букинский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Базар-Коргонский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чаткальский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ноокенский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сузакский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тогуз-Тороуский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Токтогульский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ак-Талинский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ат-Башинский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жумгальский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кочкорский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нарынский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">оз. Сон-Куль</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Ош</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алайский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Араванский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чон-Алайский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кара-Кулджинский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кара-Суйский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ноокатский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Узгенский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бакай-Атинский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кара-Бууринский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Манасский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Таласский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ак-Суйский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Джети-Огузский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тюпский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тонский район</t>
+  </si>
+  <si>
+    <t xml:space="preserve">оз. Иссык-Куль</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иссык-Кульский район</t>
   </si>
 </sst>
 </file>
@@ -241,9 +241,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -265,14 +269,14 @@
   </sheetPr>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -290,11 +294,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -304,11 +308,11 @@
         <v>330</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -318,11 +322,11 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -332,11 +336,11 @@
         <v>940</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -346,11 +350,11 @@
         <v>790</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -360,11 +364,11 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -374,11 +378,11 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -388,11 +392,11 @@
         <v>340</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -402,11 +406,11 @@
         <v>340</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -416,11 +420,11 @@
         <v>560</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -430,11 +434,11 @@
         <v>330</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -444,11 +448,11 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -458,11 +462,11 @@
         <v>940</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -472,11 +476,11 @@
         <v>790</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="0" t="n">
@@ -486,11 +490,11 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="0" t="n">
@@ -500,11 +504,11 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="0" t="n">
@@ -514,11 +518,11 @@
         <v>340</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="0" t="n">
@@ -528,11 +532,11 @@
         <v>340</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="0" t="n">
@@ -542,11 +546,11 @@
         <v>560</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="0" t="n">
@@ -556,11 +560,11 @@
         <v>330</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="0" t="n">
@@ -570,11 +574,11 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="0" t="n">
@@ -584,11 +588,11 @@
         <v>940</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="0" t="n">
@@ -598,11 +602,11 @@
         <v>790</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="0" t="n">
@@ -612,11 +616,11 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="0" t="n">
@@ -626,11 +630,11 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="0" t="n">
@@ -640,11 +644,11 @@
         <v>340</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="0" t="n">
@@ -654,11 +658,11 @@
         <v>340</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="0" t="n">
@@ -668,11 +672,11 @@
         <v>560</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="0" t="n">
@@ -682,11 +686,11 @@
         <v>330</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="0" t="n">
@@ -696,11 +700,11 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="0" t="n">
@@ -710,11 +714,11 @@
         <v>940</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="0" t="n">
@@ -724,11 +728,11 @@
         <v>790</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="0" t="n">
@@ -738,11 +742,11 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="0" t="n">
@@ -752,11 +756,11 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C35" s="0" t="n">
@@ -766,11 +770,11 @@
         <v>340</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C36" s="0" t="n">
@@ -780,11 +784,11 @@
         <v>340</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="0" t="n">
@@ -794,11 +798,11 @@
         <v>560</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="0" t="n">
@@ -808,11 +812,11 @@
         <v>330</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C39" s="0" t="n">
@@ -822,11 +826,11 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C40" s="0" t="n">
@@ -836,11 +840,11 @@
         <v>940</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C41" s="0" t="n">
@@ -850,11 +854,11 @@
         <v>790</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C42" s="0" t="n">
@@ -864,11 +868,11 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C43" s="0" t="n">
@@ -878,11 +882,11 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C44" s="0" t="n">
@@ -892,11 +896,11 @@
         <v>340</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C45" s="0" t="n">
@@ -925,13 +929,13 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -949,11 +953,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -963,11 +967,11 @@
         <v>640</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -977,11 +981,11 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -991,11 +995,11 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -1005,11 +1009,11 @@
         <v>437</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -1019,11 +1023,11 @@
         <v>583</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -1033,11 +1037,11 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -1047,11 +1051,11 @@
         <v>745</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -1061,11 +1065,11 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -1075,11 +1079,11 @@
         <v>347</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -1089,11 +1093,11 @@
         <v>640</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -1103,11 +1107,11 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -1117,11 +1121,11 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -1131,11 +1135,11 @@
         <v>437</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="0" t="n">
@@ -1145,11 +1149,11 @@
         <v>583</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="0" t="n">
@@ -1159,11 +1163,11 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="0" t="n">
@@ -1173,11 +1177,11 @@
         <v>745</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="0" t="n">
@@ -1187,11 +1191,11 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="0" t="n">
@@ -1201,11 +1205,11 @@
         <v>347</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="0" t="n">
@@ -1215,11 +1219,11 @@
         <v>640</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="0" t="n">
@@ -1229,11 +1233,11 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="0" t="n">
@@ -1243,11 +1247,11 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="0" t="n">
@@ -1257,11 +1261,11 @@
         <v>437</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="0" t="n">
@@ -1271,11 +1275,11 @@
         <v>583</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="0" t="n">
@@ -1285,11 +1289,11 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="0" t="n">
@@ -1299,11 +1303,11 @@
         <v>745</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="0" t="n">
@@ -1313,11 +1317,11 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="0" t="n">
@@ -1327,11 +1331,11 @@
         <v>347</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="0" t="n">
@@ -1341,11 +1345,11 @@
         <v>640</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="0" t="n">
@@ -1355,11 +1359,11 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="0" t="n">
@@ -1369,11 +1373,11 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="0" t="n">
@@ -1383,11 +1387,11 @@
         <v>437</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="0" t="n">
@@ -1397,11 +1401,11 @@
         <v>583</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="0" t="n">
@@ -1411,11 +1415,11 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C35" s="0" t="n">
@@ -1425,11 +1429,11 @@
         <v>745</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C36" s="0" t="n">
@@ -1439,11 +1443,11 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="0" t="n">
@@ -1453,11 +1457,11 @@
         <v>347</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="0" t="n">
@@ -1467,11 +1471,11 @@
         <v>640</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C39" s="0" t="n">
@@ -1481,11 +1485,11 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C40" s="0" t="n">
@@ -1495,11 +1499,11 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C41" s="0" t="n">
@@ -1509,11 +1513,11 @@
         <v>437</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C42" s="0" t="n">
@@ -1523,11 +1527,11 @@
         <v>583</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C43" s="0" t="n">
@@ -1537,11 +1541,11 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C44" s="0" t="n">
@@ -1551,11 +1555,11 @@
         <v>745</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C45" s="0" t="n">
@@ -1583,14 +1587,14 @@
   </sheetPr>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1608,11 +1612,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -1622,11 +1626,11 @@
         <v>570</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -1636,11 +1640,11 @@
         <v>718</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -1650,11 +1654,11 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -1664,11 +1668,11 @@
         <v>656</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -1678,11 +1682,11 @@
         <v>798</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -1692,11 +1696,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -1706,11 +1710,11 @@
         <v>760</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -1720,11 +1724,11 @@
         <v>390</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -1734,11 +1738,11 @@
         <v>376</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -1748,11 +1752,11 @@
         <v>570</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -1762,11 +1766,11 @@
         <v>718</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -1776,11 +1780,11 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -1790,11 +1794,11 @@
         <v>656</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="0" t="n">
@@ -1804,11 +1808,11 @@
         <v>798</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="0" t="n">
@@ -1818,11 +1822,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="0" t="n">
@@ -1832,11 +1836,11 @@
         <v>760</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="0" t="n">
@@ -1846,11 +1850,11 @@
         <v>390</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="0" t="n">
@@ -1860,11 +1864,11 @@
         <v>376</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="0" t="n">
@@ -1874,11 +1878,11 @@
         <v>570</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="0" t="n">
@@ -1888,11 +1892,11 @@
         <v>718</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="0" t="n">
@@ -1902,11 +1906,11 @@
         <v>148</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="0" t="n">
@@ -1916,11 +1920,11 @@
         <v>656</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="0" t="n">
@@ -1930,11 +1934,11 @@
         <v>798</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="0" t="n">
@@ -1944,11 +1948,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="0" t="n">
@@ -1958,11 +1962,11 @@
         <v>760</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="0" t="n">
@@ -1972,11 +1976,11 @@
         <v>390</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="0" t="n">
@@ -1986,11 +1990,11 @@
         <v>376</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="0" t="n">
@@ -2000,11 +2004,11 @@
         <v>570</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="0" t="n">
@@ -2014,11 +2018,11 @@
         <v>718</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="0" t="n">
@@ -2028,11 +2032,11 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="0" t="n">
@@ -2042,11 +2046,11 @@
         <v>656</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="0" t="n">
@@ -2056,11 +2060,11 @@
         <v>798</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="0" t="n">
@@ -2070,11 +2074,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C35" s="0" t="n">
@@ -2084,11 +2088,11 @@
         <v>760</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C36" s="0" t="n">
@@ -2098,11 +2102,11 @@
         <v>390</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="0" t="n">
@@ -2112,11 +2116,11 @@
         <v>376</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="0" t="n">
@@ -2126,11 +2130,11 @@
         <v>570</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C39" s="0" t="n">
@@ -2140,11 +2144,11 @@
         <v>718</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C40" s="0" t="n">
@@ -2154,11 +2158,11 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C41" s="0" t="n">
@@ -2168,11 +2172,11 @@
         <v>656</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C42" s="0" t="n">
@@ -2182,11 +2186,11 @@
         <v>798</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C43" s="0" t="n">
@@ -2196,11 +2200,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C44" s="0" t="n">
@@ -2210,11 +2214,11 @@
         <v>760</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C45" s="0" t="n">
